--- a/app/config/tables/TEST/forms/TEST/TEST.xlsx
+++ b/app/config/tables/TEST/forms/TEST/TEST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F5A50-2D6D-4ADB-A04F-F520A2D8C117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A00B4B-C14F-46A3-B875-10DBA2E15C9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
   <si>
     <t>setting_name</t>
   </si>
@@ -779,6 +779,42 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>lblKnown</t>
+  </si>
+  <si>
+    <t>lblUnknown</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>OVER 2 ÅR</t>
+  </si>
+  <si>
+    <t>IKKE OVER 2 ÅR</t>
+  </si>
+  <si>
+    <t>MAS DE 2 ANOS</t>
+  </si>
+  <si>
+    <t>NAO MAS DE 2 ANOS</t>
+  </si>
+  <si>
+    <t>data('ADA') &amp;&amp; data('ADA').length&gt;0 &amp;&amp; moment().diff(moment(data('ADA'), '\\D:DD,\\M:MM,\\Y:YYYY'),'years')&gt;=2</t>
   </si>
 </sst>
 </file>
@@ -1299,11 +1335,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1410,65 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3615,9 +3709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,6 +3743,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
     </row>

--- a/app/config/tables/TEST/forms/TEST/TEST.xlsx
+++ b/app/config/tables/TEST/forms/TEST/TEST.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A00B4B-C14F-46A3-B875-10DBA2E15C9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35843121-9256-4774-851E-2203312E1D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="queries" sheetId="5" r:id="rId3"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId4"/>
-    <sheet name="choices" sheetId="3" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
+    <sheet name="calculates" sheetId="7" r:id="rId3"/>
+    <sheet name="queries" sheetId="5" r:id="rId4"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
+    <sheet name="choices" sheetId="3" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="266">
   <si>
     <t>setting_name</t>
   </si>
@@ -814,7 +815,31 @@
     <t>NAO MAS DE 2 ANOS</t>
   </si>
   <si>
-    <t>data('ADA') &amp;&amp; data('ADA').length&gt;0 &amp;&amp; moment().diff(moment(data('ADA'), '\\D:DD,\\M:MM,\\Y:YYYY'),'years')&gt;=2</t>
+    <t>lblbla</t>
+  </si>
+  <si>
+    <t>lblblabla</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Falsk</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>Alder {{adate.ageInYears(data('ADA'))}}</t>
+  </si>
+  <si>
+    <t>adate.ageInYears(data('ADA'))&gt;2</t>
+  </si>
+  <si>
+    <t>Ingen alder…</t>
+  </si>
+  <si>
+    <t>!adate.yearUnknown(data('ADA'))</t>
   </si>
 </sst>
 </file>
@@ -824,7 +849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +902,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -916,7 +948,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -943,6 +975,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1335,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1459,7 @@
         <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,6 +1502,52 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1478,6 +1557,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA108D4-AA6D-472D-96E7-C4516EA7148E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1553,7 +1660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DD6A2-F953-4C0B-9442-0FB4A254DCDD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1618,7 +1725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D140"/>
   <sheetViews>
@@ -3705,7 +3812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C120"/>
   <sheetViews>

--- a/app/config/tables/TEST/forms/TEST/TEST.xlsx
+++ b/app/config/tables/TEST/forms/TEST/TEST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35843121-9256-4774-851E-2203312E1D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B553D9-E1EA-473A-93A6-B4E36CF97898}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="268">
   <si>
     <t>setting_name</t>
   </si>
@@ -840,6 +841,12 @@
   </si>
   <si>
     <t>!adate.yearUnknown(data('ADA'))</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -1368,11 +1375,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,110 +1451,122 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>247</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>252</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>250</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>253</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>252</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>251</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>254</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>247</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>252</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>257</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>262</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>252</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>264</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3816,9 +3835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,6 +3880,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
     </row>
@@ -4064,7 +4094,7 @@
       <c r="B120" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G93">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/TEST/forms/TEST/TEST.xlsx
+++ b/app/config/tables/TEST/forms/TEST/TEST.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B553D9-E1EA-473A-93A6-B4E36CF97898}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555DE266-0589-45E4-AFC4-C93661FEF6E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="278">
   <si>
     <t>setting_name</t>
   </si>
@@ -783,9 +782,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -822,31 +818,64 @@
     <t>lblblabla</t>
   </si>
   <si>
-    <t>Sand</t>
-  </si>
-  <si>
     <t>Falsk</t>
   </si>
   <si>
     <t>calculation_name</t>
   </si>
   <si>
-    <t>Alder {{adate.ageInYears(data('ADA'))}}</t>
-  </si>
-  <si>
-    <t>adate.ageInYears(data('ADA'))&gt;2</t>
-  </si>
-  <si>
     <t>Ingen alder…</t>
   </si>
   <si>
     <t>!adate.yearUnknown(data('ADA'))</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>adate.ageInYears(data('ADA'))&gt;=2</t>
+  </si>
+  <si>
+    <t>ageInYears</t>
+  </si>
+  <si>
+    <t>ageInMonths</t>
+  </si>
+  <si>
+    <t>ageInDays</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('ADA'), data('ADA2'))</t>
+  </si>
+  <si>
+    <t>ADA2</t>
+  </si>
+  <si>
+    <t>Testdato 2</t>
+  </si>
+  <si>
+    <t>Nammename</t>
+  </si>
+  <si>
+    <t>adate.ageInYears(data('ADA2'))</t>
+  </si>
+  <si>
+    <t>adate.ageInMonths(data('ADA2'))</t>
+  </si>
+  <si>
+    <t>adate.ageInDays(data('ADA2'))</t>
+  </si>
+  <si>
+    <t>Alder I hele år: &lt;b&gt;{{calculates.ageInYears}}&lt;/b&gt;&lt;br/&gt;I måneder: {{calculates.ageInMonths}}&lt;br/&gt;I dage: {{calculates.ageInDays}}&lt;br/&gt;( baseret på {{data.ADA}} )&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>diffInYears</t>
+  </si>
+  <si>
+    <t>Differencen var: {{calculates.diffInYears}} år.</t>
   </si>
 </sst>
 </file>
@@ -1375,28 +1404,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>121</v>
       </c>
@@ -1427,14 +1459,20 @@
       <c r="J1" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" t="s">
         <v>241</v>
@@ -1448,125 +1486,148 @@
       <c r="H3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1998</v>
+      </c>
+      <c r="L3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4">
+        <v>1990</v>
+      </c>
+      <c r="L4">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>247</v>
       </c>
-      <c r="C7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" t="s">
         <v>250</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>253</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>251</v>
       </c>
-      <c r="G10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>247</v>
       </c>
-      <c r="C12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
         <v>257</v>
       </c>
-      <c r="G13" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" t="s">
         <v>258</v>
-      </c>
-      <c r="G15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1577,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA108D4-AA6D-472D-96E7-C4516EA7148E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,10 +1652,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3835,9 +3928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,29 +3959,18 @@
         <v>239</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>239</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4094,7 +4176,7 @@
       <c r="B120" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G93">
+  <sortState ref="F2:G93">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/TEST/forms/TEST/TEST.xlsx
+++ b/app/config/tables/TEST/forms/TEST/TEST.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555DE266-0589-45E4-AFC4-C93661FEF6E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB7B703-0BEC-4342-ACD4-31035FA8602B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="calculates" sheetId="7" r:id="rId3"/>
-    <sheet name="queries" sheetId="5" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
+    <sheet name="calculates" sheetId="7" r:id="rId2"/>
+    <sheet name="survey" sheetId="2" r:id="rId3"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId4"/>
+    <sheet name="queries" sheetId="5" r:id="rId5"/>
     <sheet name="choices" sheetId="3" r:id="rId6"/>
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="168">
   <si>
     <t>setting_name</t>
   </si>
@@ -120,276 +121,6 @@
     <t>portuguese</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>YesNoU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
-    <t>Don't know</t>
-  </si>
-  <si>
-    <t>Não sabe</t>
-  </si>
-  <si>
-    <t>inf1</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>inf2</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Mãe</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Pai</t>
-  </si>
-  <si>
-    <t>Mothers mother</t>
-  </si>
-  <si>
-    <t>Avó</t>
-  </si>
-  <si>
-    <t>Other family member</t>
-  </si>
-  <si>
-    <t>Outra mebro da familia</t>
-  </si>
-  <si>
-    <t>No informant found</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>etn1</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>BA - Balanta</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
-    <t>FU - Fula</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>MC - Mancanha</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MD - Mandinga</t>
-  </si>
-  <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>MJ - Mandjancu</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PE - Pepel</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>MX - Mixted</t>
-  </si>
-  <si>
-    <t>MX - Mixto</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>etn2</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BE - Beafada</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>BI - Bijago</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>BM - Balante mane</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CV - Cabo Verdiano</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>GE - Geba</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>FE - Felupe</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MS - Mansoanca</t>
-  </si>
-  <si>
-    <t>MS - Mansonca</t>
-  </si>
-  <si>
-    <t>NA - Nalu</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SA - Sarakolé</t>
-  </si>
-  <si>
-    <t>WO</t>
-  </si>
-  <si>
-    <t>WO - Wolof</t>
-  </si>
-  <si>
-    <t>OU - Other</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>Day certain</t>
-  </si>
-  <si>
-    <t>Dia certo</t>
-  </si>
-  <si>
-    <t>Month certain</t>
-  </si>
-  <si>
-    <t>Mes certo</t>
-  </si>
-  <si>
-    <t>Season certain</t>
-  </si>
-  <si>
-    <t>Ano certo</t>
-  </si>
-  <si>
-    <t>Não aplicável</t>
-  </si>
-  <si>
-    <t>Estação certo</t>
-  </si>
-  <si>
-    <t>Ela/e</t>
-  </si>
-  <si>
-    <t>Outra/o</t>
-  </si>
-  <si>
-    <t>Nenhum informador</t>
-  </si>
-  <si>
-    <t>Falta informacao</t>
-  </si>
-  <si>
-    <t>OU - Outra/o</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Oio</t>
-  </si>
-  <si>
-    <t>Biombo</t>
-  </si>
-  <si>
-    <t>Gabu</t>
-  </si>
-  <si>
-    <t>Cacheu</t>
-  </si>
-  <si>
-    <t>Bafata</t>
-  </si>
-  <si>
-    <t>Quinnara</t>
-  </si>
-  <si>
-    <t>Tombali</t>
-  </si>
-  <si>
-    <t>Bubaque</t>
-  </si>
-  <si>
-    <t>Bolama</t>
-  </si>
-  <si>
-    <t>São Domingos</t>
-  </si>
-  <si>
-    <t>MSF Bafata</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -399,33 +130,6 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>Mother/father</t>
-  </si>
-  <si>
-    <t>Husband</t>
-  </si>
-  <si>
-    <t>Sister/brother</t>
-  </si>
-  <si>
-    <t>Marido</t>
-  </si>
-  <si>
-    <t>Aunt/uncle</t>
-  </si>
-  <si>
-    <t>Tia/tio</t>
-  </si>
-  <si>
-    <t>Mãe/pai</t>
-  </si>
-  <si>
-    <t>Irmã/irmão</t>
-  </si>
-  <si>
     <t>font-size</t>
   </si>
   <si>
@@ -708,47 +412,12 @@
     <t>callback</t>
   </si>
   <si>
-    <t>region_csv</t>
-  </si>
-  <si>
-    <t>csv</t>
-  </si>
-  <si>
-    <t>"TABANCAS.csv"</t>
-  </si>
-  <si>
-    <t>tabanca_csv</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
-    <t>_.map(context, function(place){place.data_value = place.TAB;
-place.display = {title: {text: place.TABANCA} };
-return place;
-})</t>
-  </si>
-  <si>
     <t>fielName</t>
   </si>
   <si>
-    <t>_.chain(context)
-.uniq(function(x) {
-return x.REG
-})
-.map(function(place){
-return {
-data_value:place.REG,
-display:{title: {text: place.REGIAO} } };
-}).value()</t>
-  </si>
-  <si>
-    <t>dontknow</t>
-  </si>
-  <si>
-    <t>Year certain</t>
-  </si>
-  <si>
     <t>prompt_type_name</t>
   </si>
   <si>
@@ -791,12 +460,6 @@
     <t>end if</t>
   </si>
   <si>
-    <t>lblKnown</t>
-  </si>
-  <si>
-    <t>lblUnknown</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -812,12 +475,6 @@
     <t>NAO MAS DE 2 ANOS</t>
   </si>
   <si>
-    <t>lblbla</t>
-  </si>
-  <si>
-    <t>lblblabla</t>
-  </si>
-  <si>
     <t>Falsk</t>
   </si>
   <si>
@@ -876,6 +533,9 @@
   </si>
   <si>
     <t>Differencen var: {{calculates.diffInYears}} år.</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -885,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,12 +584,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -984,7 +638,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1003,15 +657,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1336,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,10 +1043,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1403,12 +1056,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA108D4-AA6D-472D-96E7-C4516EA7148E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1143,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -1454,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1475,16 +1188,16 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="K3">
         <v>1998</v>
@@ -1496,16 +1209,16 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="K4">
         <v>1990</v>
@@ -1528,102 +1241,87 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" t="s">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>247</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>247</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -1636,143 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA108D4-AA6D-472D-96E7-C4516EA7148E}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DD6A2-F953-4C0B-9442-0FB4A254DCDD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1791,45 +1353,92 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>240</v>
+      <c r="A2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,8 +1451,8 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,2053 +1477,1328 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"88"</f>
-        <v>88</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" t="str">
-        <f>"11"</f>
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" t="str">
-        <f>"12"</f>
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" t="str">
-        <f>"13"</f>
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" t="s">
-        <v>115</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" t="str">
-        <f>"14"</f>
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" t="str">
-        <f>"15"</f>
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>117</v>
-      </c>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" t="str">
-        <f>"16"</f>
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
-      </c>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" t="s">
-        <v>129</v>
-      </c>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" t="s">
-        <v>126</v>
-      </c>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
-      </c>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" t="s">
-        <v>128</v>
-      </c>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B58" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B59" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B60" s="11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B61" s="11" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B62" s="11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B63" s="11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B64" s="11" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B65" s="11" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B66" s="11" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B67" s="11" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B68" s="11" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B69" s="11" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B70" s="11" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B71" s="11" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B72" s="11" t="str">
         <f>"16"</f>
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B73" s="11" t="str">
         <f>"17"</f>
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B74" s="11" t="str">
         <f>"18"</f>
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B75" s="11" t="str">
         <f>"19"</f>
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B76" s="11" t="str">
         <f>"20"</f>
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B77" s="11" t="str">
         <f>"21"</f>
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B78" s="11" t="str">
         <f>"22"</f>
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B79" s="11" t="str">
         <f>"23"</f>
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B80" s="11" t="str">
         <f>"24"</f>
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B81" s="11" t="str">
         <f>"25"</f>
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B82" s="11" t="str">
         <f>"26"</f>
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B83" s="11" t="str">
         <f>"27"</f>
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B84" s="11" t="str">
         <f>"28"</f>
         <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B85" s="11" t="str">
         <f>"29"</f>
         <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B86" s="11" t="str">
         <f>"30"</f>
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B87" s="11" t="str">
         <f>"31"</f>
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B88" s="11" t="str">
         <f>"32"</f>
         <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B89" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B90" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B91" s="11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B92" s="11" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B93" s="11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="D93" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B94" s="11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B95" s="11" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B96" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B97" s="11" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B98" s="11" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B99" s="11" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B100" s="11" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B101" s="11" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B102" s="11" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B103" s="11" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B104" s="11" t="str">
         <f>"16"</f>
         <v>16</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B105" s="11" t="str">
         <f>"17"</f>
         <v>17</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B106" s="11" t="str">
         <f>"18"</f>
         <v>18</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="D106" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B107" s="11" t="str">
         <f>"19"</f>
         <v>19</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B108" s="11" t="str">
         <f>"20"</f>
         <v>20</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B109" s="11" t="str">
         <f>"21"</f>
         <v>21</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B110" s="11" t="str">
         <f>"22"</f>
         <v>22</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="D110" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B111" s="11" t="str">
         <f>"23"</f>
         <v>23</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B112" s="11" t="str">
         <f>"24"</f>
         <v>24</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="D112" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B113" s="11" t="str">
         <f>"25"</f>
         <v>25</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="D113" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B114" s="11" t="str">
         <f>"26"</f>
         <v>26</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="D114" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B115" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="D115" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B116" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B117" s="11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="D117" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B118" s="11" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B119" s="11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B120" s="11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D120" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B121" s="11" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B122" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="D122" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B123" s="11" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B124" s="11" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B125" s="11" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D125" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B126" s="11" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D126" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B127" s="11" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B128" s="11" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D128" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B129" s="11" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D129" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B130" s="11" t="str">
         <f>"16"</f>
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D130" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B131" s="11" t="str">
         <f>"17"</f>
         <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D131" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B132" s="11" t="str">
         <f>"18"</f>
         <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D132" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B133" s="11" t="str">
         <f>"19"</f>
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B134" s="11" t="str">
         <f>"20"</f>
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D134" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B135" s="11" t="str">
         <f>"21"</f>
         <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D135" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B136" s="11" t="str">
         <f>"22"</f>
         <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B137" s="11" t="str">
         <f>"23"</f>
         <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="D137" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B138" s="11" t="str">
         <f>"24"</f>
         <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D138" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B139" s="11" t="str">
         <f>"25"</f>
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="D139" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B140" s="11" t="str">
         <f>"26"</f>
         <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D140" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -3953,31 +2837,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
@@ -4176,7 +3060,7 @@
       <c r="B120" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G93">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
